--- a/stats.xlsx
+++ b/stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e558b79b752fc558/Escritorio/py/lineup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e558b79b752fc558/Escritorio/py/MLBLineupsGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="8_{8D71F00F-D618-4215-BF17-55F1C2D0446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20BF134C-D362-4AFB-8A57-15E510EE54E4}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="8_{8D71F00F-D618-4215-BF17-55F1C2D0446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DADEDDEF-877F-4916-80B7-F9305563658F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A398CFD0-6192-4D5C-94D1-EAF604C763A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A398CFD0-6192-4D5C-94D1-EAF604C763A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3924,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94100E2-FC9D-4B8A-BC5F-8F3ECDA46C1A}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:M19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4003,19 +4003,19 @@
         <v>91</v>
       </c>
       <c r="F2" s="27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="28">
         <v>75</v>
       </c>
       <c r="H2" s="28">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="28">
         <v>40</v>
       </c>
       <c r="J2" s="28">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" s="28">
         <v>69</v>
@@ -4024,7 +4024,7 @@
         <v>79</v>
       </c>
       <c r="M2" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4047,7 +4047,7 @@
         <v>98</v>
       </c>
       <c r="G3" s="28">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="28">
         <v>82</v>
@@ -4056,7 +4056,7 @@
         <v>79</v>
       </c>
       <c r="J3" s="28">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3" s="28">
         <v>98</v>
@@ -4088,7 +4088,7 @@
         <v>94</v>
       </c>
       <c r="G4" s="28">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H4" s="28">
         <v>89</v>
@@ -4097,7 +4097,7 @@
         <v>50</v>
       </c>
       <c r="J4" s="28">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" s="28">
         <v>85</v>
@@ -4135,7 +4135,7 @@
         <v>99</v>
       </c>
       <c r="I5" s="28">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" s="28">
         <v>99</v>
@@ -4167,13 +4167,13 @@
         <v>76</v>
       </c>
       <c r="F6" s="27">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" s="28">
         <v>48</v>
       </c>
       <c r="H6" s="28">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I6" s="28">
         <v>83</v>
@@ -4229,7 +4229,7 @@
         <v>49</v>
       </c>
       <c r="M7" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="27">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" s="28">
         <v>44</v>
@@ -4331,7 +4331,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="27">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" s="28">
         <v>60</v>
@@ -4343,7 +4343,7 @@
         <v>48</v>
       </c>
       <c r="J10" s="28">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10" s="28">
         <v>77</v>
@@ -4370,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="27">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11" s="27">
         <v>72</v>
@@ -4379,7 +4379,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="28">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" s="28">
         <v>68</v>
@@ -4469,10 +4469,10 @@
         <v>59</v>
       </c>
       <c r="J13" s="28">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="28">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="28">
         <v>45</v>
@@ -4746,8 +4746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E9409E-4402-4D0B-B853-36FBBCBB5840}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5517,14 +5517,14 @@
       </c>
       <c r="K5" s="17">
         <f>data_lineup!J3/100</f>
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
       <c r="M5">
         <f>L5*K5</f>
-        <v>2.6</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e558b79b752fc558/Escritorio/py/MLBLineupsGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="8_{8D71F00F-D618-4215-BF17-55F1C2D0446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DADEDDEF-877F-4916-80B7-F9305563658F}"/>
+  <xr:revisionPtr revIDLastSave="533" documentId="8_{8D71F00F-D618-4215-BF17-55F1C2D0446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF8CF7D8-95F5-446E-9E5F-EA59C8CD2B18}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A398CFD0-6192-4D5C-94D1-EAF604C763A7}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="Stats montly" sheetId="4" r:id="rId3"/>
-    <sheet name="data_lineup" sheetId="5" r:id="rId4"/>
-    <sheet name="as" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="LAA" sheetId="5" r:id="rId4"/>
+    <sheet name="TEX" sheetId="8" r:id="rId5"/>
+    <sheet name="AOK" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="158">
   <si>
     <t>Player</t>
   </si>
@@ -479,6 +480,42 @@
   </si>
   <si>
     <t>Lawerence Butler</t>
+  </si>
+  <si>
+    <t>Adolis Garcia</t>
+  </si>
+  <si>
+    <t>Corey Seager</t>
+  </si>
+  <si>
+    <t>Marcus Semien</t>
+  </si>
+  <si>
+    <t>Jonah Heim</t>
+  </si>
+  <si>
+    <t>Josh Jung</t>
+  </si>
+  <si>
+    <t>Mitch Garver</t>
+  </si>
+  <si>
+    <t>Ezequiel Duran</t>
+  </si>
+  <si>
+    <t>Evan carter</t>
+  </si>
+  <si>
+    <t>Leody Taveras</t>
+  </si>
+  <si>
+    <t>Nathaniel Lowe</t>
+  </si>
+  <si>
+    <t>Robie Grossman</t>
+  </si>
+  <si>
+    <t>best hitter</t>
   </si>
 </sst>
 </file>
@@ -3924,8 +3961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94100E2-FC9D-4B8A-BC5F-8F3ECDA46C1A}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3940,9 +3977,9 @@
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
     <col min="10" max="10" width="5.77734375" customWidth="1"/>
     <col min="11" max="11" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="6.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="3.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -4609,7 +4646,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
-        <f>data_lineup!A19+1</f>
+        <f>LAA!A19+1</f>
         <v>17</v>
       </c>
       <c r="B17" t="s">
@@ -4693,7 +4730,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
-        <f>data_lineup!A16+1</f>
+        <f>LAA!A16+1</f>
         <v>16</v>
       </c>
       <c r="B19" t="s">
@@ -4734,8 +4771,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M15">
-    <sortCondition ref="A2:A15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K24:M41">
+    <sortCondition descending="1" ref="M24:M41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4743,11 +4780,620 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF98E2B-B5BC-4137-BADC-315EC8730697}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>95</v>
+      </c>
+      <c r="H2">
+        <v>91</v>
+      </c>
+      <c r="I2">
+        <v>46</v>
+      </c>
+      <c r="J2">
+        <v>75</v>
+      </c>
+      <c r="K2">
+        <v>64</v>
+      </c>
+      <c r="L2">
+        <v>63</v>
+      </c>
+      <c r="M2">
+        <v>67</v>
+      </c>
+      <c r="N2">
+        <f>((E2/100)*30)+((G2/100)*30)+((K2/100)*30)+((L2/100)*5)+((I2/100)*5)</f>
+        <v>73.25</v>
+      </c>
+      <c r="O2">
+        <f>((F2/100)*30)+((H2/100)*30)+((K2/100)*30)+((L2/100)*5)+((I2/100)*5)</f>
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <v>94</v>
+      </c>
+      <c r="G3">
+        <v>98</v>
+      </c>
+      <c r="H3">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>77</v>
+      </c>
+      <c r="J3">
+        <v>64</v>
+      </c>
+      <c r="K3">
+        <v>98</v>
+      </c>
+      <c r="L3">
+        <v>34</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N12" si="0">((E3/100)*30)+((G3/100)*30)+((K3/100)*30)+((L3/100)*5)+((I3/100)*5)</f>
+        <v>94.05</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O12" si="1">((F3/100)*30)+((H3/100)*30)+((K3/100)*30)+((L3/100)*5)+((I3/100)*5)</f>
+        <v>85.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A12" si="2">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>78</v>
+      </c>
+      <c r="F4">
+        <v>82</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>83</v>
+      </c>
+      <c r="J4">
+        <v>68</v>
+      </c>
+      <c r="K4">
+        <v>98</v>
+      </c>
+      <c r="L4">
+        <v>80</v>
+      </c>
+      <c r="M4">
+        <v>48</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>83.450000000000017</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>75.650000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>99</v>
+      </c>
+      <c r="G5">
+        <v>68</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>72</v>
+      </c>
+      <c r="J5">
+        <v>58</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <v>32</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>74.499999999999986</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>78.999999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
+        <v>64</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>46</v>
+      </c>
+      <c r="J6">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>69</v>
+      </c>
+      <c r="L6">
+        <v>47</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>64.650000000000006</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>84.449999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>98</v>
+      </c>
+      <c r="G7">
+        <v>97</v>
+      </c>
+      <c r="H7">
+        <v>59</v>
+      </c>
+      <c r="I7">
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <v>84</v>
+      </c>
+      <c r="K7">
+        <v>88</v>
+      </c>
+      <c r="L7">
+        <v>36</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>79.55</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>78.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>75</v>
+      </c>
+      <c r="I8">
+        <v>52</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>67</v>
+      </c>
+      <c r="L8">
+        <v>83</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>65.849999999999994</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>74.849999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>78</v>
+      </c>
+      <c r="F9">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <v>78</v>
+      </c>
+      <c r="K9">
+        <v>51</v>
+      </c>
+      <c r="L9">
+        <v>91</v>
+      </c>
+      <c r="M9">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>64.599999999999994</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>52.300000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>77</v>
+      </c>
+      <c r="G10">
+        <v>57</v>
+      </c>
+      <c r="H10">
+        <v>43</v>
+      </c>
+      <c r="I10">
+        <v>66</v>
+      </c>
+      <c r="J10">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>62</v>
+      </c>
+      <c r="L10">
+        <v>91</v>
+      </c>
+      <c r="M10">
+        <v>57</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>66.650000000000006</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>62.449999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>87</v>
+      </c>
+      <c r="F11">
+        <v>61</v>
+      </c>
+      <c r="G11">
+        <v>58</v>
+      </c>
+      <c r="H11">
+        <v>44</v>
+      </c>
+      <c r="I11">
+        <v>61</v>
+      </c>
+      <c r="J11">
+        <v>88</v>
+      </c>
+      <c r="K11">
+        <v>78</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>72.45</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>60.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>55</v>
+      </c>
+      <c r="J12">
+        <v>89</v>
+      </c>
+      <c r="K12">
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <v>63</v>
+      </c>
+      <c r="M12">
+        <v>40</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>51.5</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E9409E-4402-4D0B-B853-36FBBCBB5840}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5343,7 +5989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B86644-3852-477F-946C-1A8F21C9A9DD}">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -5405,7 +6051,7 @@
         <v>105</v>
       </c>
       <c r="K2" s="17" t="e">
-        <f>data_lineup!#REF!/100</f>
+        <f>LAA!#REF!/100</f>
         <v>#REF!</v>
       </c>
       <c r="L2">
@@ -5442,7 +6088,7 @@
         <v>106</v>
       </c>
       <c r="K3" s="17" t="e">
-        <f>data_lineup!#REF!/100</f>
+        <f>LAA!#REF!/100</f>
         <v>#REF!</v>
       </c>
       <c r="L3">
@@ -5479,7 +6125,7 @@
         <v>107</v>
       </c>
       <c r="K4" s="17">
-        <f>data_lineup!I3/100</f>
+        <f>LAA!I3/100</f>
         <v>0.79</v>
       </c>
       <c r="L4">
@@ -5516,7 +6162,7 @@
         <v>108</v>
       </c>
       <c r="K5" s="17">
-        <f>data_lineup!J3/100</f>
+        <f>LAA!J3/100</f>
         <v>0.51</v>
       </c>
       <c r="L5">

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e558b79b752fc558/Escritorio/py/MLBLineupsGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="8_{8D71F00F-D618-4215-BF17-55F1C2D0446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF8CF7D8-95F5-446E-9E5F-EA59C8CD2B18}"/>
+  <xr:revisionPtr revIDLastSave="777" documentId="8_{8D71F00F-D618-4215-BF17-55F1C2D0446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4944A009-CBF3-4E48-9712-576B5475B061}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A398CFD0-6192-4D5C-94D1-EAF604C763A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
-    <sheet name="Stats montly" sheetId="4" r:id="rId3"/>
-    <sheet name="LAA" sheetId="5" r:id="rId4"/>
-    <sheet name="TEX" sheetId="8" r:id="rId5"/>
-    <sheet name="AOK" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId7"/>
+    <sheet name="stats" sheetId="4" r:id="rId3"/>
+    <sheet name="LAA_stats" sheetId="9" r:id="rId4"/>
+    <sheet name="LAA" sheetId="5" r:id="rId5"/>
+    <sheet name="TEX" sheetId="8" r:id="rId6"/>
+    <sheet name="AOK" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="186">
   <si>
     <t>Player</t>
   </si>
@@ -263,9 +264,6 @@
     <t>Matt  Thais</t>
   </si>
   <si>
-    <t>Payroll %</t>
-  </si>
-  <si>
     <t>SAC</t>
   </si>
   <si>
@@ -516,16 +514,102 @@
   </si>
   <si>
     <t>best hitter</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>SB %</t>
+  </si>
+  <si>
+    <t>SB%</t>
+  </si>
+  <si>
+    <t>STATs</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>avg_RHP</t>
+  </si>
+  <si>
+    <t>avg_LHP</t>
+  </si>
+  <si>
+    <t>obp_RHP</t>
+  </si>
+  <si>
+    <t>obp_LHP</t>
+  </si>
+  <si>
+    <t>slg_RHP</t>
+  </si>
+  <si>
+    <t>slg_LHP</t>
+  </si>
+  <si>
+    <t>ops_RHP</t>
+  </si>
+  <si>
+    <t>ops_LHP</t>
+  </si>
+  <si>
+    <t>HR_total</t>
+  </si>
+  <si>
+    <t>RBI_total</t>
+  </si>
+  <si>
+    <t>Player_number</t>
+  </si>
+  <si>
+    <t>Last_updated_date</t>
+  </si>
+  <si>
+    <t>Player_name</t>
+  </si>
+  <si>
+    <t>season_games</t>
+  </si>
+  <si>
+    <t>player_games_played</t>
+  </si>
+  <si>
+    <t>as_of_game</t>
+  </si>
+  <si>
+    <t>season_games_left</t>
+  </si>
+  <si>
+    <t>HR_p_G</t>
+  </si>
+  <si>
+    <t>total_pace</t>
+  </si>
+  <si>
+    <t>total_hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power_score </t>
+  </si>
+  <si>
+    <t>0 to 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -611,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,14 +713,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -647,9 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,6 +745,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1832,2104 +1917,2178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D83762C-3ED0-4D35-ACC0-1637813746B2}">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G15"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="16">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="22" t="s">
+      <c r="G2" s="16">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="19">
+        <v>28</v>
+      </c>
+      <c r="K2" s="16">
+        <v>28</v>
+      </c>
+      <c r="L2" s="28">
+        <f t="shared" ref="L2:L15" si="0">K2/J2</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>108</v>
+      </c>
+      <c r="N2" s="12">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <v>43</v>
+      </c>
+      <c r="P2" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R2" s="12">
+        <v>17</v>
+      </c>
+      <c r="S2">
         <v>43</v>
       </c>
-      <c r="R1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI1" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP1" s="22" t="s">
+      <c r="T2" s="12">
+        <v>17</v>
+      </c>
+      <c r="U2">
+        <v>15</v>
+      </c>
+      <c r="V2" s="12">
+        <v>8</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="25">
+        <f>(O2/M2)*1000</f>
+        <v>398.14814814814815</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>SUM(O2,T2,AG2)/SUM(M2,T2,AG2,AC2)*1000</f>
+        <v>488.18897637795277</v>
+      </c>
+      <c r="Z2" s="27">
+        <f>AH2/M2*1000</f>
+        <v>990.74074074074065</v>
+      </c>
+      <c r="AA2" s="11">
+        <f t="shared" ref="AA2:AA15" si="1">Z2+Y2</f>
+        <v>1478.9297171186934</v>
+      </c>
+      <c r="AB2" s="12">
+        <f t="shared" ref="AB2:AB15" si="2">SUM(M2,T2,AC2,AD2,AG2)</f>
+        <v>127</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="13">
+        <f>1-(W2/SUM(V2:W2))</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AG2" s="12">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" ref="AH2:AH15" si="3">(O2-P2-Q2-R2)+(P2*2)+(Q2*3)+(R2*4)</f>
+        <v>107</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="AJ2" s="13">
+        <f t="shared" ref="AJ2:AJ15" si="4">T2/AB2</f>
+        <v>0.13385826771653545</v>
+      </c>
+      <c r="AK2" s="26">
+        <f t="shared" ref="AK2:AK15" si="5">U2/AB2</f>
+        <v>0.11811023622047244</v>
+      </c>
+      <c r="AL2" s="13">
+        <f t="shared" ref="AL2:AL15" si="6">T2/U2</f>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="AM2" s="15">
+        <f t="shared" ref="AM2:AM15" si="7">IF(R2=0,0,M2/R2)</f>
+        <v>6.3529411764705879</v>
+      </c>
+      <c r="AN2">
+        <v>30.1</v>
+      </c>
+      <c r="AO2" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="AP2">
+        <v>51.4</v>
+      </c>
+      <c r="AQ2" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="16">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="16">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="21">
-        <v>4</v>
-      </c>
-      <c r="D2" s="21">
-        <v>4</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="21">
-        <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="25">
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="19">
         <v>28</v>
       </c>
-      <c r="J2" s="21">
-        <v>28</v>
-      </c>
-      <c r="K2" s="24">
-        <f t="shared" ref="K2:K15" si="0">J2/I2</f>
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>108</v>
-      </c>
-      <c r="M2" s="13">
-        <v>32</v>
-      </c>
-      <c r="N2">
-        <v>43</v>
-      </c>
-      <c r="O2" s="13">
-        <v>7</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>17</v>
-      </c>
-      <c r="R2">
-        <v>43</v>
-      </c>
-      <c r="S2" s="13">
-        <v>17</v>
-      </c>
-      <c r="T2">
-        <v>15</v>
-      </c>
-      <c r="U2" s="13">
-        <v>8</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="14">
-        <f t="shared" ref="W2:W15" si="1">N2/L2</f>
-        <v>0.39814814814814814</v>
-      </c>
-      <c r="X2" s="11">
-        <f t="shared" ref="X2:X15" si="2">SUM(N2,S2,AE2)/SUM(L2,S2,AE2,AB2)</f>
-        <v>0.48818897637795278</v>
-      </c>
-      <c r="Y2" s="14">
-        <f t="shared" ref="Y2:Y15" si="3">AF2/L2</f>
-        <v>0.9907407407407407</v>
-      </c>
-      <c r="Z2" s="11">
-        <f t="shared" ref="Z2:Z15" si="4">Y2+X2</f>
-        <v>1.4789297171186935</v>
-      </c>
-      <c r="AA2" s="13">
-        <f t="shared" ref="AA2:AA15" si="5">SUM(L2,S2,AB2,AC2,AE2)</f>
-        <v>127</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="13">
-        <v>2</v>
-      </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AF15" si="6">(N2-O2-P2-Q2)+(O2*2)+(P2*3)+(Q2*4)</f>
-        <v>107</v>
-      </c>
-      <c r="AG2" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="AH2" s="16">
-        <f t="shared" ref="AH2:AH15" si="7">S2/AA2</f>
-        <v>0.13385826771653545</v>
-      </c>
-      <c r="AI2" s="15">
-        <f t="shared" ref="AI2:AI15" si="8">T2/AA2</f>
-        <v>0.11811023622047244</v>
-      </c>
-      <c r="AJ2" s="17">
-        <f t="shared" ref="AJ2:AJ15" si="9">S2/T2</f>
-        <v>1.1333333333333333</v>
-      </c>
-      <c r="AK2" s="20">
-        <f t="shared" ref="AK2:AK15" si="10">IF(Q2=0,0,L2/Q2)</f>
-        <v>6.3529411764705879</v>
-      </c>
-      <c r="AL2">
-        <v>30.1</v>
-      </c>
-      <c r="AM2" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="AN2">
-        <v>51.4</v>
-      </c>
-      <c r="AO2" s="19">
-        <v>30</v>
-      </c>
-      <c r="AP2" s="18" t="e">
-        <f t="shared" ref="AP2:AP15" si="11">AO2/$AO$18</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="21">
-        <v>9</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="21">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="25">
-        <v>28</v>
-      </c>
-      <c r="J3" s="21">
+      <c r="K3" s="16">
         <v>20</v>
       </c>
-      <c r="K3" s="24">
+      <c r="L3" s="28">
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>65</v>
       </c>
-      <c r="M3" s="13">
+      <c r="N3" s="12">
         <v>8</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>20</v>
       </c>
-      <c r="O3" s="13">
+      <c r="P3" s="12">
         <v>6</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
         <v>3</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>18</v>
       </c>
-      <c r="S3" s="13">
+      <c r="T3" s="12">
         <v>15</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>18</v>
       </c>
-      <c r="U3" s="13">
-        <v>1</v>
-      </c>
-      <c r="V3">
+      <c r="V3" s="12">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>3</v>
       </c>
-      <c r="W3" s="14">
+      <c r="X3" s="25">
+        <f t="shared" ref="X3:X15" si="8">(O3/M3)*1000</f>
+        <v>307.69230769230774</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" ref="Y3:Y15" si="9">SUM(O3,T3,AG3)/SUM(M3,T3,AG3,AC3)*1000</f>
+        <v>426.82926829268291</v>
+      </c>
+      <c r="Z3" s="27">
+        <f t="shared" ref="Z3:Z15" si="10">AH3/M3*1000</f>
+        <v>538.46153846153845</v>
+      </c>
+      <c r="AA3" s="11">
         <f t="shared" si="1"/>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="X3" s="11">
+        <v>965.29080675422142</v>
+      </c>
+      <c r="AB3" s="12">
         <f t="shared" si="2"/>
-        <v>0.42682926829268292</v>
-      </c>
-      <c r="Y3" s="14">
+        <v>82</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="13">
+        <f>1-(W3/SUM(V3:W3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <f t="shared" si="3"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="Z3" s="11">
+        <v>35</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="AJ3" s="13">
         <f t="shared" si="4"/>
-        <v>0.96529080675422141</v>
-      </c>
-      <c r="AA3" s="13">
+        <v>0.18292682926829268</v>
+      </c>
+      <c r="AK3" s="26">
         <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="AB3">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF3">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="AL3" s="13">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="AG3" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="AH3" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AM3" s="15">
         <f t="shared" si="7"/>
-        <v>0.18292682926829268</v>
-      </c>
-      <c r="AI3" s="15">
-        <f t="shared" si="8"/>
-        <v>0.21951219512195122</v>
-      </c>
-      <c r="AJ3" s="17">
-        <f t="shared" si="9"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AK3" s="20">
-        <f t="shared" si="10"/>
         <v>21.666666666666668</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>7.8</v>
       </c>
-      <c r="AM3" s="13">
+      <c r="AO3" s="12">
         <v>-1.5</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>15.3</v>
       </c>
-      <c r="AO3" s="19">
+      <c r="AQ3" s="14">
         <v>0.72</v>
       </c>
-      <c r="AP3" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="21">
+      <c r="D4" s="16">
         <v>7</v>
       </c>
-      <c r="D4" s="21">
-        <v>1</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="16">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>70</v>
       </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="25">
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="19">
         <v>28</v>
       </c>
-      <c r="J4" s="21">
+      <c r="K4" s="16">
         <v>11</v>
       </c>
-      <c r="K4" s="24">
+      <c r="L4" s="28">
         <f t="shared" si="0"/>
         <v>0.39285714285714285</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>49</v>
       </c>
-      <c r="M4" s="13">
+      <c r="N4" s="12">
         <v>13</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>19</v>
       </c>
-      <c r="O4" s="13">
+      <c r="P4" s="12">
         <v>4</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>1</v>
-      </c>
-      <c r="R4">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="12">
+        <v>1</v>
+      </c>
+      <c r="S4">
         <v>5</v>
       </c>
-      <c r="S4" s="13">
-        <v>2</v>
-      </c>
-      <c r="T4">
+      <c r="T4" s="12">
+        <v>2</v>
+      </c>
+      <c r="U4">
         <v>5</v>
       </c>
-      <c r="U4" s="13">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="14">
+      <c r="V4" s="12">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="25">
+        <f t="shared" si="8"/>
+        <v>387.75510204081633</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" si="9"/>
+        <v>415.09433962264154</v>
+      </c>
+      <c r="Z4" s="27">
+        <f t="shared" si="10"/>
+        <v>571.42857142857144</v>
+      </c>
+      <c r="AA4" s="11">
         <f t="shared" si="1"/>
-        <v>0.38775510204081631</v>
-      </c>
-      <c r="X4" s="11">
+        <v>986.52291105121299</v>
+      </c>
+      <c r="AB4" s="12">
         <f t="shared" si="2"/>
-        <v>0.41509433962264153</v>
-      </c>
-      <c r="Y4" s="14">
+        <v>53</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="13">
+        <f>1-(W4/SUM(V4:W4))</f>
+        <v>0.5</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH4">
         <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z4" s="11">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="AJ4" s="13">
         <f t="shared" si="4"/>
-        <v>0.98652291105121293</v>
-      </c>
-      <c r="AA4" s="13">
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="AK4" s="26">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF4">
+        <v>9.4339622641509441E-2</v>
+      </c>
+      <c r="AL4" s="13">
         <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="AM4" s="15">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="AN4">
+        <v>5.2</v>
+      </c>
+      <c r="AO4" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="AP4">
+        <v>11.5</v>
+      </c>
+      <c r="AQ4" s="14">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="16">
+        <v>5</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="19">
         <v>28</v>
       </c>
-      <c r="AG4" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="AH4" s="16">
-        <f t="shared" si="7"/>
-        <v>3.7735849056603772E-2</v>
-      </c>
-      <c r="AI4" s="15">
-        <f t="shared" si="8"/>
-        <v>9.4339622641509441E-2</v>
-      </c>
-      <c r="AJ4" s="17">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="AK4" s="20">
-        <f t="shared" si="10"/>
-        <v>49</v>
-      </c>
-      <c r="AL4">
-        <v>5.2</v>
-      </c>
-      <c r="AM4" s="13">
-        <v>-0.3</v>
-      </c>
-      <c r="AN4">
-        <v>11.5</v>
-      </c>
-      <c r="AO4" s="19">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AP4" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="21">
-        <v>5</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="21">
-        <v>77</v>
-      </c>
-      <c r="G5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="25">
-        <v>28</v>
-      </c>
-      <c r="J5" s="21">
+      <c r="K5" s="16">
         <v>12</v>
       </c>
-      <c r="K5" s="24">
+      <c r="L5" s="28">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>46</v>
       </c>
-      <c r="M5" s="13">
+      <c r="N5" s="12">
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>15</v>
       </c>
-      <c r="O5" s="13">
+      <c r="P5" s="12">
         <v>5</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="13">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="12">
         <v>3</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6</v>
       </c>
-      <c r="S5" s="13">
+      <c r="T5" s="12">
         <v>6</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>8</v>
       </c>
-      <c r="U5" s="13">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14">
+      <c r="V5" s="12">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="25">
+        <f t="shared" si="8"/>
+        <v>326.08695652173913</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="9"/>
+        <v>403.84615384615387</v>
+      </c>
+      <c r="Z5" s="27">
+        <f t="shared" si="10"/>
+        <v>673.91304347826087</v>
+      </c>
+      <c r="AA5" s="11">
         <f t="shared" si="1"/>
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="X5" s="11">
+        <v>1077.7591973244148</v>
+      </c>
+      <c r="AB5" s="12">
         <f t="shared" si="2"/>
-        <v>0.40384615384615385</v>
-      </c>
-      <c r="Y5" s="14">
+        <v>52</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="13">
+        <f>1-(W5/SUM(V5:W5))</f>
+        <v>1</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <f t="shared" si="3"/>
-        <v>0.67391304347826086</v>
-      </c>
-      <c r="Z5" s="11">
+        <v>31</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="13">
         <f t="shared" si="4"/>
-        <v>1.0777591973244147</v>
-      </c>
-      <c r="AA5" s="13">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="AK5" s="26">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF5">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AL5" s="13">
         <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="AG5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="AM5" s="15">
         <f t="shared" si="7"/>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="AI5" s="15">
-        <f t="shared" si="8"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="AJ5" s="17">
-        <f t="shared" si="9"/>
-        <v>0.75</v>
-      </c>
-      <c r="AK5" s="20">
-        <f t="shared" si="10"/>
         <v>15.333333333333334</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>6.2</v>
       </c>
-      <c r="AM5" s="13">
+      <c r="AO5" s="12">
         <v>0.6</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>12.5</v>
       </c>
-      <c r="AO5" s="19">
+      <c r="AQ5" s="14">
         <v>10.4</v>
       </c>
-      <c r="AP5" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="16">
         <v>7</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
       <c r="H6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="25">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="19">
         <v>28</v>
       </c>
-      <c r="J6" s="21">
+      <c r="K6" s="16">
         <v>8</v>
       </c>
-      <c r="K6" s="24">
+      <c r="L6" s="28">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>31</v>
       </c>
-      <c r="M6" s="13">
+      <c r="N6" s="12">
         <v>3</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>11</v>
       </c>
-      <c r="O6" s="13">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>1</v>
-      </c>
-      <c r="R6">
+      <c r="P6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="S6" s="13">
-        <v>2</v>
-      </c>
-      <c r="T6">
+      <c r="T6" s="12">
+        <v>2</v>
+      </c>
+      <c r="U6">
         <v>11</v>
       </c>
-      <c r="U6" s="13">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6" s="14">
+      <c r="V6" s="12">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="25">
+        <f t="shared" si="8"/>
+        <v>354.83870967741939</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="9"/>
+        <v>393.93939393939394</v>
+      </c>
+      <c r="Z6" s="27">
+        <f t="shared" si="10"/>
+        <v>483.87096774193549</v>
+      </c>
+      <c r="AA6" s="11">
         <f t="shared" si="1"/>
-        <v>0.35483870967741937</v>
-      </c>
-      <c r="X6" s="11">
+        <v>877.81036168132937</v>
+      </c>
+      <c r="AB6" s="12">
         <f t="shared" si="2"/>
-        <v>0.39393939393939392</v>
-      </c>
-      <c r="Y6" s="14">
+        <v>33</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="13">
+        <f>1-(W6/SUM(V6:W6))</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <f t="shared" si="3"/>
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="Z6" s="11">
+        <v>15</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="AJ6" s="13">
         <f t="shared" si="4"/>
-        <v>0.87781036168132942</v>
-      </c>
-      <c r="AA6" s="13">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="AK6" s="26">
         <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL6" s="13">
+        <f t="shared" si="6"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AM6" s="15">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="AN6">
+        <v>2.1</v>
+      </c>
+      <c r="AO6" s="12">
+        <v>-0.6</v>
+      </c>
+      <c r="AP6">
+        <v>5.9</v>
+      </c>
+      <c r="AQ6" s="14">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="16">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>3</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16">
+        <v>99</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="AG6" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="AH6" s="16">
-        <f t="shared" si="7"/>
-        <v>6.0606060606060608E-2</v>
-      </c>
-      <c r="AI6" s="15">
-        <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AJ6" s="17">
-        <f t="shared" si="9"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="AK6" s="20">
-        <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="AL6">
-        <v>2.1</v>
-      </c>
-      <c r="AM6" s="13">
-        <v>-0.6</v>
-      </c>
-      <c r="AN6">
-        <v>5.9</v>
-      </c>
-      <c r="AO6" s="19">
-        <v>0.72</v>
-      </c>
-      <c r="AP6" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="21">
-        <v>3</v>
-      </c>
-      <c r="D7" s="21">
-        <v>3</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="21">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="25">
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="19">
         <v>28</v>
       </c>
-      <c r="J7" s="21">
+      <c r="K7" s="16">
         <v>24</v>
       </c>
-      <c r="K7" s="24">
+      <c r="L7" s="28">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>91</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="12">
         <v>17</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>24</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="12">
         <v>10</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
         <v>4</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>12</v>
       </c>
-      <c r="S7" s="13">
+      <c r="T7" s="12">
         <v>18</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>25</v>
       </c>
-      <c r="U7" s="13">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="14">
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="25">
+        <f t="shared" si="8"/>
+        <v>263.73626373626377</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" si="9"/>
+        <v>385.32110091743124</v>
+      </c>
+      <c r="Z7" s="27">
+        <f t="shared" si="10"/>
+        <v>505.49450549450546</v>
+      </c>
+      <c r="AA7" s="11">
         <f t="shared" si="1"/>
-        <v>0.26373626373626374</v>
-      </c>
-      <c r="X7" s="11">
+        <v>890.81560641193664</v>
+      </c>
+      <c r="AB7" s="12">
         <f t="shared" si="2"/>
-        <v>0.38532110091743121</v>
-      </c>
-      <c r="Y7" s="14">
+        <v>110</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="13">
+        <f>IF(V7=0,0,1-(W7/SUM(V7:W7)))</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="3"/>
-        <v>0.50549450549450547</v>
-      </c>
-      <c r="Z7" s="11">
+        <v>46</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="AJ7" s="13">
         <f t="shared" si="4"/>
-        <v>0.89081560641193669</v>
-      </c>
-      <c r="AA7" s="13">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="AK7" s="26">
         <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF7">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="AL7" s="13">
         <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+      <c r="AM7" s="15">
+        <f t="shared" si="7"/>
+        <v>22.75</v>
+      </c>
+      <c r="AN7">
+        <v>7.3</v>
+      </c>
+      <c r="AO7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>17.7</v>
+      </c>
+      <c r="AQ7" s="14">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AG7" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="AH7" s="16">
-        <f t="shared" si="7"/>
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="AI7" s="15">
-        <f t="shared" si="8"/>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="AJ7" s="17">
-        <f t="shared" si="9"/>
-        <v>0.72</v>
-      </c>
-      <c r="AK7" s="20">
-        <f t="shared" si="10"/>
-        <v>22.75</v>
-      </c>
-      <c r="AL7">
-        <v>7.3</v>
-      </c>
-      <c r="AM7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>17.7</v>
-      </c>
-      <c r="AO7" s="19">
-        <v>35.5</v>
-      </c>
-      <c r="AP7" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="21">
+      <c r="D8" s="16">
         <v>5</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="E8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="16">
         <v>80</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>58</v>
       </c>
-      <c r="H8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="25">
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="19">
         <v>28</v>
       </c>
-      <c r="J8" s="21">
+      <c r="K8" s="16">
         <v>23</v>
       </c>
-      <c r="K8" s="24">
+      <c r="L8" s="28">
         <f t="shared" si="0"/>
         <v>0.8214285714285714</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>81</v>
       </c>
-      <c r="M8" s="13">
+      <c r="N8" s="12">
         <v>9</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>20</v>
       </c>
-      <c r="O8" s="13">
+      <c r="P8" s="12">
         <v>3</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>1</v>
-      </c>
-      <c r="R8">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>10</v>
       </c>
-      <c r="S8" s="13">
+      <c r="T8" s="12">
         <v>18</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>15</v>
       </c>
-      <c r="U8" s="13">
-        <v>2</v>
-      </c>
-      <c r="V8">
+      <c r="V8" s="12">
+        <v>2</v>
+      </c>
+      <c r="W8">
         <v>3</v>
       </c>
-      <c r="W8" s="14">
+      <c r="X8" s="25">
+        <f t="shared" si="8"/>
+        <v>246.91358024691357</v>
+      </c>
+      <c r="Y8" s="11">
+        <f t="shared" si="9"/>
+        <v>383.83838383838383</v>
+      </c>
+      <c r="Z8" s="27">
+        <f t="shared" si="10"/>
+        <v>320.98765432098764</v>
+      </c>
+      <c r="AA8" s="11">
         <f t="shared" si="1"/>
-        <v>0.24691358024691357</v>
-      </c>
-      <c r="X8" s="11">
+        <v>704.82603815937148</v>
+      </c>
+      <c r="AB8" s="12">
         <f t="shared" si="2"/>
-        <v>0.38383838383838381</v>
-      </c>
-      <c r="Y8" s="14">
+        <v>99</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
+        <f>1-(W8/SUM(V8:W8))</f>
+        <v>0.4</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <f t="shared" si="3"/>
-        <v>0.32098765432098764</v>
-      </c>
-      <c r="Z8" s="11">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="AJ8" s="13">
         <f t="shared" si="4"/>
-        <v>0.70482603815937139</v>
-      </c>
-      <c r="AA8" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AK8" s="26">
         <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF8">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="AL8" s="13">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="AG8" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="AH8" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="AM8" s="15">
         <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="AI8" s="15">
-        <f t="shared" si="8"/>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="AJ8" s="17">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="AK8" s="20">
-        <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="AL8">
-        <v>2</v>
-      </c>
-      <c r="AM8" s="13">
+      <c r="AN8">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="12">
         <v>-1.2</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>10</v>
       </c>
-      <c r="AO8" s="19">
+      <c r="AQ8" s="14">
         <v>27.9</v>
       </c>
-      <c r="AP8" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="21">
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="16">
         <v>74</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>55</v>
       </c>
-      <c r="H9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="25">
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="19">
         <v>28</v>
       </c>
-      <c r="J9" s="21">
+      <c r="K9" s="16">
         <v>22</v>
       </c>
-      <c r="K9" s="24">
+      <c r="L9" s="28">
         <f t="shared" si="0"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>90</v>
       </c>
-      <c r="M9" s="13">
+      <c r="N9" s="12">
         <v>17</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>27</v>
       </c>
-      <c r="O9" s="13">
+      <c r="P9" s="12">
         <v>4</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
         <v>6</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>13</v>
       </c>
-      <c r="S9" s="13">
+      <c r="T9" s="12">
         <v>10</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>25</v>
       </c>
-      <c r="U9" s="13">
+      <c r="V9" s="12">
         <v>3</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="14">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="25">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="Y9" s="11">
+        <f t="shared" si="9"/>
+        <v>376.23762376237624</v>
+      </c>
+      <c r="Z9" s="27">
+        <f t="shared" si="10"/>
+        <v>544.44444444444434</v>
+      </c>
+      <c r="AA9" s="11">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="X9" s="11">
+        <v>920.68206820682053</v>
+      </c>
+      <c r="AB9" s="12">
         <f t="shared" si="2"/>
-        <v>0.37623762376237624</v>
-      </c>
-      <c r="Y9" s="14">
+        <v>101</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="13">
+        <f>1-(W9/SUM(V9:W9))</f>
+        <v>1</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="3"/>
-        <v>0.5444444444444444</v>
-      </c>
-      <c r="Z9" s="11">
+        <v>49</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AJ9" s="13">
         <f t="shared" si="4"/>
-        <v>0.92068206820682064</v>
-      </c>
-      <c r="AA9" s="13">
+        <v>9.9009900990099015E-2</v>
+      </c>
+      <c r="AK9" s="26">
         <f t="shared" si="5"/>
-        <v>101</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF9">
+        <v>0.24752475247524752</v>
+      </c>
+      <c r="AL9" s="13">
         <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="AG9" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="AH9" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="AM9" s="15">
         <f t="shared" si="7"/>
-        <v>9.9009900990099015E-2</v>
-      </c>
-      <c r="AI9" s="15">
-        <f t="shared" si="8"/>
-        <v>0.24752475247524752</v>
-      </c>
-      <c r="AJ9" s="17">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="AK9" s="20">
-        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>7.4</v>
       </c>
-      <c r="AM9" s="13">
+      <c r="AO9" s="12">
         <v>0.9</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>18.100000000000001</v>
       </c>
-      <c r="AO9" s="19">
+      <c r="AQ9" s="14">
         <v>0.72</v>
       </c>
-      <c r="AP9" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="21">
-        <v>2</v>
-      </c>
-      <c r="D10" s="21">
-        <v>2</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="21">
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="16">
         <v>93</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="25">
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="19">
         <v>28</v>
       </c>
-      <c r="J10" s="21">
+      <c r="K10" s="16">
         <v>24</v>
       </c>
-      <c r="K10" s="24">
+      <c r="L10" s="28">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>107</v>
       </c>
-      <c r="M10" s="13">
+      <c r="N10" s="12">
         <v>17</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>35</v>
       </c>
-      <c r="O10" s="13">
+      <c r="P10" s="12">
         <v>12</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
         <v>3</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>13</v>
       </c>
-      <c r="S10" s="13">
+      <c r="T10" s="12">
         <v>5</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>20</v>
       </c>
-      <c r="U10" s="13">
+      <c r="V10" s="12">
         <v>4</v>
       </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10" s="14">
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10" s="25">
+        <f t="shared" si="8"/>
+        <v>327.10280373831773</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="9"/>
+        <v>373.91304347826087</v>
+      </c>
+      <c r="Z10" s="27">
+        <f t="shared" si="10"/>
+        <v>523.36448598130835</v>
+      </c>
+      <c r="AA10" s="11">
         <f t="shared" si="1"/>
-        <v>0.32710280373831774</v>
-      </c>
-      <c r="X10" s="11">
+        <v>897.27752945956922</v>
+      </c>
+      <c r="AB10" s="12">
         <f t="shared" si="2"/>
-        <v>0.37391304347826088</v>
-      </c>
-      <c r="Y10" s="14">
+        <v>115</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13">
+        <f>1-(W10/SUM(V10:W10))</f>
+        <v>0.8</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH10">
         <f t="shared" si="3"/>
-        <v>0.52336448598130836</v>
-      </c>
-      <c r="Z10" s="11">
+        <v>56</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="AJ10" s="13">
         <f t="shared" si="4"/>
-        <v>0.89727752945956918</v>
-      </c>
-      <c r="AA10" s="13">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="AK10" s="26">
         <f t="shared" si="5"/>
-        <v>115</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="13">
-        <v>3</v>
-      </c>
-      <c r="AF10">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="AL10" s="13">
         <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-      <c r="AG10" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="AH10" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="AM10" s="15">
         <f t="shared" si="7"/>
-        <v>4.3478260869565216E-2</v>
-      </c>
-      <c r="AI10" s="15">
-        <f t="shared" si="8"/>
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="AJ10" s="17">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-      <c r="AK10" s="20">
-        <f t="shared" si="10"/>
         <v>35.666666666666664</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>7.6</v>
       </c>
-      <c r="AM10" s="13">
+      <c r="AO10" s="12">
         <v>0.6</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>20</v>
       </c>
-      <c r="AO10" s="19">
+      <c r="AQ10" s="14">
         <v>17.5</v>
       </c>
-      <c r="AP10" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="D11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="16">
         <v>6</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="16">
         <v>79</v>
       </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
       <c r="H11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="25">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="19">
         <v>28</v>
       </c>
-      <c r="J11" s="21">
+      <c r="K11" s="16">
         <v>6</v>
       </c>
-      <c r="K11" s="24">
+      <c r="L11" s="28">
         <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>20</v>
       </c>
-      <c r="M11" s="13">
+      <c r="N11" s="12">
         <v>5</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4</v>
       </c>
-      <c r="O11" s="13">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>1</v>
-      </c>
-      <c r="R11">
+      <c r="P11" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1</v>
+      </c>
+      <c r="S11">
         <v>3</v>
       </c>
-      <c r="S11" s="13">
-        <v>2</v>
-      </c>
-      <c r="T11">
+      <c r="T11" s="12">
+        <v>2</v>
+      </c>
+      <c r="U11">
         <v>4</v>
       </c>
-      <c r="U11" s="13">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" s="14">
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="25">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" si="9"/>
+        <v>304.34782608695656</v>
+      </c>
+      <c r="Z11" s="27">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="AA11" s="11">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="X11" s="11">
+        <v>754.3478260869565</v>
+      </c>
+      <c r="AB11" s="12">
         <f t="shared" si="2"/>
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="Y11" s="14">
+        <v>23</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13">
+        <f>IF(V11=0,0,1-(W11/SUM(V11:W11)))</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH11">
         <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-      <c r="Z11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13">
         <f t="shared" si="4"/>
-        <v>0.7543478260869565</v>
-      </c>
-      <c r="AA11" s="13">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="AK11" s="26">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF11">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="AL11" s="13">
         <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AM11" s="15">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="AN11">
+        <v>0.4</v>
+      </c>
+      <c r="AO11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>2.5</v>
+      </c>
+      <c r="AQ11" s="14">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="16">
+        <v>8</v>
+      </c>
+      <c r="E12" s="16">
         <v>9</v>
       </c>
-      <c r="AG11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="16">
-        <f t="shared" si="7"/>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="AI11" s="15">
-        <f t="shared" si="8"/>
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="AJ11" s="17">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK11" s="20">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="AL11">
-        <v>0.4</v>
-      </c>
-      <c r="AM11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>2.5</v>
-      </c>
-      <c r="AO11" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="AP11" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="21">
-        <v>8</v>
-      </c>
-      <c r="D12" s="21">
-        <v>9</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="21">
+      <c r="F12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="16">
         <v>72</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="25">
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="19">
         <v>28</v>
       </c>
-      <c r="J12" s="21">
+      <c r="K12" s="16">
         <v>24</v>
       </c>
-      <c r="K12" s="24">
+      <c r="L12" s="28">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>102</v>
       </c>
-      <c r="M12" s="13">
+      <c r="N12" s="12">
         <v>17</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>29</v>
       </c>
-      <c r="O12" s="13">
+      <c r="P12" s="12">
         <v>7</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>11</v>
       </c>
-      <c r="S12" s="13">
-        <v>2</v>
-      </c>
-      <c r="T12">
+      <c r="T12" s="12">
+        <v>2</v>
+      </c>
+      <c r="U12">
         <v>12</v>
       </c>
-      <c r="U12" s="13">
-        <v>1</v>
-      </c>
-      <c r="V12">
+      <c r="V12" s="12">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>3</v>
       </c>
-      <c r="W12" s="14">
+      <c r="X12" s="25">
+        <f t="shared" si="8"/>
+        <v>284.31372549019608</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="9"/>
+        <v>295.23809523809524</v>
+      </c>
+      <c r="Z12" s="27">
+        <f t="shared" si="10"/>
+        <v>352.94117647058823</v>
+      </c>
+      <c r="AA12" s="11">
         <f t="shared" si="1"/>
-        <v>0.28431372549019607</v>
-      </c>
-      <c r="X12" s="11">
+        <v>648.17927170868347</v>
+      </c>
+      <c r="AB12" s="12">
         <f t="shared" si="2"/>
-        <v>0.29523809523809524</v>
-      </c>
-      <c r="Y12" s="14">
+        <v>107</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13">
+        <f>1-(W12/SUM(V12:W12))</f>
+        <v>0.25</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
         <f t="shared" si="3"/>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="Z12" s="11">
+        <v>36</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="AJ12" s="13">
         <f t="shared" si="4"/>
-        <v>0.6481792717086835</v>
-      </c>
-      <c r="AA12" s="13">
+        <v>1.8691588785046728E-2</v>
+      </c>
+      <c r="AK12" s="26">
         <f t="shared" si="5"/>
-        <v>107</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>2</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF12">
+        <v>0.11214953271028037</v>
+      </c>
+      <c r="AL12" s="13">
         <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>-0.2</v>
-      </c>
-      <c r="AH12" s="16">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AM12" s="15">
         <f t="shared" si="7"/>
-        <v>1.8691588785046728E-2</v>
-      </c>
-      <c r="AI12" s="15">
-        <f t="shared" si="8"/>
-        <v>0.11214953271028037</v>
-      </c>
-      <c r="AJ12" s="17">
-        <f t="shared" si="9"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AK12" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
         <v>-1.8</v>
       </c>
-      <c r="AM12" s="13">
+      <c r="AO12" s="12">
         <v>-1.5</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>10.7</v>
       </c>
-      <c r="AO12" s="19">
+      <c r="AQ12" s="14">
         <v>3.9</v>
       </c>
-      <c r="AP12" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="D13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="16">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
         <v>86</v>
       </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="25">
+      <c r="J13" s="19">
         <v>28</v>
       </c>
-      <c r="J13" s="21">
+      <c r="K13" s="16">
         <v>8</v>
       </c>
-      <c r="K13" s="24">
+      <c r="L13" s="28">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>32</v>
       </c>
-      <c r="M13" s="13">
-        <v>2</v>
-      </c>
-      <c r="N13">
+      <c r="N13" s="12">
+        <v>2</v>
+      </c>
+      <c r="O13">
         <v>8</v>
       </c>
-      <c r="O13" s="13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>1</v>
-      </c>
-      <c r="R13">
+      <c r="P13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>6</v>
       </c>
-      <c r="S13" s="13">
-        <v>1</v>
-      </c>
-      <c r="T13">
+      <c r="T13" s="12">
+        <v>1</v>
+      </c>
+      <c r="U13">
         <v>11</v>
       </c>
-      <c r="U13" s="13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="14">
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="25">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="Y13" s="11">
+        <f t="shared" si="9"/>
+        <v>272.72727272727269</v>
+      </c>
+      <c r="Z13" s="27">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
+      <c r="AA13" s="11">
         <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="X13" s="11">
+        <v>647.72727272727275</v>
+      </c>
+      <c r="AB13" s="12">
         <f t="shared" si="2"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="Y13" s="14">
+        <v>33</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13">
+        <f>IF(V13=0,0,1-(W13/SUM(V13:W13)))</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="Z13" s="11">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="AJ13" s="13">
         <f t="shared" si="4"/>
-        <v>0.64772727272727271</v>
-      </c>
-      <c r="AA13" s="13">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="AK13" s="26">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL13" s="13">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="AG13" s="13">
-        <v>-0.2</v>
-      </c>
-      <c r="AH13" s="16">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AM13" s="15">
         <f t="shared" si="7"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="AI13" s="15">
-        <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AJ13" s="17">
-        <f t="shared" si="9"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="AK13" s="20">
-        <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>-0.7</v>
       </c>
-      <c r="AM13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
+      <c r="AO13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP13">
         <v>3.3</v>
       </c>
-      <c r="AO13" s="19">
+      <c r="AQ13" s="14">
         <v>2.8</v>
       </c>
-      <c r="AP13" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="21">
+      <c r="D14" s="16">
         <v>6</v>
       </c>
-      <c r="D14" s="21">
+      <c r="E14" s="16">
         <v>8</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="F14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="16">
         <v>83</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>59</v>
       </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="25">
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="19">
         <v>28</v>
       </c>
-      <c r="J14" s="21">
+      <c r="K14" s="16">
         <v>24</v>
       </c>
-      <c r="K14" s="24">
+      <c r="L14" s="28">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>96</v>
       </c>
-      <c r="M14" s="13">
+      <c r="N14" s="12">
         <v>11</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>22</v>
       </c>
-      <c r="O14" s="13">
+      <c r="P14" s="12">
         <v>5</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="13">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" s="12">
         <v>5</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>19</v>
       </c>
-      <c r="S14" s="13">
-        <v>2</v>
-      </c>
-      <c r="T14">
+      <c r="T14" s="12">
+        <v>2</v>
+      </c>
+      <c r="U14">
         <v>21</v>
       </c>
-      <c r="U14" s="13">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" s="14">
+      <c r="V14" s="12">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="25">
+        <f t="shared" si="8"/>
+        <v>229.16666666666666</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="Z14" s="27">
+        <f t="shared" si="10"/>
+        <v>458.33333333333331</v>
+      </c>
+      <c r="AA14" s="11">
         <f t="shared" si="1"/>
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="X14" s="11">
+        <v>698.33333333333326</v>
+      </c>
+      <c r="AB14" s="12">
         <f t="shared" si="2"/>
-        <v>0.24</v>
-      </c>
-      <c r="Y14" s="14">
+        <v>101</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="13">
+        <f>IF(V14=0,0,1-(W14/SUM(V14:W14)))</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH14">
         <f t="shared" si="3"/>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="Z14" s="11">
+        <v>44</v>
+      </c>
+      <c r="AI14" s="12">
+        <v>-0.4</v>
+      </c>
+      <c r="AJ14" s="13">
         <f t="shared" si="4"/>
-        <v>0.69833333333333325</v>
-      </c>
-      <c r="AA14" s="13">
+        <v>1.9801980198019802E-2</v>
+      </c>
+      <c r="AK14" s="26">
         <f t="shared" si="5"/>
-        <v>101</v>
-      </c>
-      <c r="AB14">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF14">
+        <v>0.20792079207920791</v>
+      </c>
+      <c r="AL14" s="13">
         <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>-0.4</v>
-      </c>
-      <c r="AH14" s="16">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AM14" s="15">
         <f t="shared" si="7"/>
-        <v>1.9801980198019802E-2</v>
-      </c>
-      <c r="AI14" s="15">
-        <f t="shared" si="8"/>
-        <v>0.20792079207920791</v>
-      </c>
-      <c r="AJ14" s="17">
-        <f t="shared" si="9"/>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="AK14" s="20">
-        <f t="shared" si="10"/>
         <v>19.2</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>-0.7</v>
       </c>
-      <c r="AM14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN14">
+      <c r="AO14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP14">
         <v>10.8</v>
       </c>
-      <c r="AO14" s="19">
+      <c r="AQ14" s="14">
         <v>8.5</v>
       </c>
-      <c r="AP14" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="16">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="19">
         <v>28</v>
       </c>
-      <c r="J15" s="21">
+      <c r="K15" s="16">
         <v>20</v>
       </c>
-      <c r="K15" s="24">
+      <c r="L15" s="28">
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>78</v>
       </c>
-      <c r="M15" s="13">
+      <c r="N15" s="12">
         <v>9</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>10</v>
       </c>
-      <c r="O15" s="13">
+      <c r="P15" s="12">
         <v>3</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>2</v>
-      </c>
-      <c r="R15">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" s="12">
+        <v>2</v>
+      </c>
+      <c r="S15">
         <v>5</v>
       </c>
-      <c r="S15" s="13">
+      <c r="T15" s="12">
         <v>3</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>17</v>
       </c>
-      <c r="U15" s="13">
+      <c r="V15" s="12">
         <v>3</v>
       </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15" s="14">
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15" s="25">
+        <f t="shared" si="8"/>
+        <v>128.2051282051282</v>
+      </c>
+      <c r="Y15" s="11">
+        <f t="shared" si="9"/>
+        <v>158.53658536585365</v>
+      </c>
+      <c r="Z15" s="27">
+        <f t="shared" si="10"/>
+        <v>269.23076923076923</v>
+      </c>
+      <c r="AA15" s="11">
         <f t="shared" si="1"/>
-        <v>0.12820512820512819</v>
-      </c>
-      <c r="X15" s="11">
+        <v>427.76735459662291</v>
+      </c>
+      <c r="AB15" s="12">
         <f t="shared" si="2"/>
-        <v>0.15853658536585366</v>
-      </c>
-      <c r="Y15" s="14">
+        <v>82</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="13">
+        <f>1-(W15/SUM(V15:W15))</f>
+        <v>0.75</v>
+      </c>
+      <c r="AG15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <f t="shared" si="3"/>
-        <v>0.26923076923076922</v>
-      </c>
-      <c r="Z15" s="11">
+        <v>21</v>
+      </c>
+      <c r="AI15" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="AJ15" s="13">
         <f t="shared" si="4"/>
-        <v>0.42776735459662285</v>
-      </c>
-      <c r="AA15" s="13">
+        <v>3.6585365853658534E-2</v>
+      </c>
+      <c r="AK15" s="26">
         <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF15">
+        <v>0.2073170731707317</v>
+      </c>
+      <c r="AL15" s="13">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="AG15" s="13">
-        <v>-0.2</v>
-      </c>
-      <c r="AH15" s="16">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="AM15" s="15">
         <f t="shared" si="7"/>
-        <v>3.6585365853658534E-2</v>
-      </c>
-      <c r="AI15" s="15">
-        <f t="shared" si="8"/>
-        <v>0.2073170731707317</v>
-      </c>
-      <c r="AJ15" s="17">
-        <f t="shared" si="9"/>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="AK15" s="20">
-        <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>-7.9</v>
       </c>
-      <c r="AM15" s="13">
+      <c r="AO15" s="12">
         <v>0.3</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>3.4</v>
       </c>
-      <c r="AO15" s="19">
+      <c r="AQ15" s="14">
         <v>0.75</v>
       </c>
-      <c r="AP15" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+    </row>
+    <row r="20" spans="35:36" x14ac:dyDescent="0.3">
+      <c r="AJ20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="35:36" x14ac:dyDescent="0.3">
+      <c r="AI21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="35:36" x14ac:dyDescent="0.3">
+      <c r="AI22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="35:36" x14ac:dyDescent="0.3">
+      <c r="AI23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="35:36" x14ac:dyDescent="0.3">
+      <c r="AI24" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F15">
+  <conditionalFormatting sqref="G2:G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3941,7 +4100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X15">
+  <conditionalFormatting sqref="Y2:Y15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3958,11 +4117,258 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD94C20-844E-42BC-A8EC-4E60653B6E64}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>45258</v>
+      </c>
+      <c r="B2">
+        <v>162</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>119</v>
+      </c>
+      <c r="E2">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
+      </c>
+      <c r="K2" s="13">
+        <f>J2/E2</f>
+        <v>0.53488372093023251</v>
+      </c>
+      <c r="L2" s="11">
+        <f>J2+(K2*D2)</f>
+        <v>86.651162790697668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>45258</v>
+      </c>
+      <c r="K6" t="s">
+        <v>183</v>
+      </c>
+      <c r="L6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>45258</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>45258</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="K8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>45258</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>45258</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29">
+        <v>45258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94100E2-FC9D-4B8A-BC5F-8F3ECDA46C1A}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3977,177 +4383,189 @@
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
     <col min="10" max="10" width="5.77734375" customWidth="1"/>
     <col min="11" max="11" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="7.6640625" customWidth="1"/>
     <col min="14" max="14" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+      <c r="N1" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="27">
+        <v>79</v>
+      </c>
+      <c r="E2" s="21">
         <v>91</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="21">
         <v>35</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="22">
         <v>75</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="22">
         <v>45</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="22">
         <v>40</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="22">
         <v>34</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="22">
         <v>69</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="22">
         <v>79</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="N2" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="27">
+        <v>79</v>
+      </c>
+      <c r="E3" s="21">
         <v>84</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>98</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="22">
         <v>69</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="22">
         <v>82</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="22">
         <v>79</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="22">
         <v>51</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="22">
         <v>98</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="22">
         <v>67</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="22">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="N3" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <v>86</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="21">
         <v>94</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="22">
         <v>96</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="22">
         <v>89</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="22">
         <v>50</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="22">
         <v>90</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="22">
         <v>85</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="22">
         <v>89</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="22">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="N4" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -4157,38 +4575,41 @@
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="27">
+        <v>79</v>
+      </c>
+      <c r="E5" s="21">
         <v>99</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="21">
         <v>62</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="22">
         <v>99</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="22">
         <v>99</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="22">
         <v>54</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="22">
         <v>99</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="22">
         <v>94</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="22">
         <v>86</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="22">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+      <c r="N5" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -4200,36 +4621,39 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="21">
         <v>76</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="21">
         <v>70</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="22">
         <v>48</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="22">
         <v>77</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="22">
         <v>83</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="22">
         <v>98</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="22">
         <v>82</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="22">
         <v>35</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="N6" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -4241,36 +4665,39 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="21">
         <v>70</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="21">
         <v>72</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="22">
         <v>77</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="22">
         <v>80</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="22">
         <v>55</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="22">
         <v>38</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="22">
         <v>77</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="22">
         <v>49</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+      <c r="N7" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -4282,36 +4709,39 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="21">
         <v>78</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="21">
         <v>99</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="22">
         <v>44</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="22">
         <v>45</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="22">
         <v>77</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="22">
         <v>38</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="22">
         <v>70</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="22">
         <v>29</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="N8" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -4323,36 +4753,39 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <v>65</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="21">
         <v>74</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="22">
         <v>29</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="22">
         <v>36</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="22">
         <v>99</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="22">
         <v>34</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="22">
         <v>88</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="22">
         <v>48</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="22">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="N9" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -4362,43 +4795,46 @@
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="27">
+        <v>79</v>
+      </c>
+      <c r="E10" s="21">
         <v>68</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="21">
         <v>57</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="22">
         <v>60</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="22">
         <v>41</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="22">
         <v>48</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="22">
         <v>88</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="22">
         <v>77</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="22">
         <v>26</v>
       </c>
-      <c r="M10" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
         <f t="shared" ref="A11:A16" si="0">A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -4406,83 +4842,89 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="21">
         <v>60</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="21">
         <v>72</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="22">
         <v>50</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="22">
         <v>76</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="22">
         <v>68</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="22">
         <v>42</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="22">
         <v>52</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="22">
         <v>77</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="22">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="N11" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>62</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="21">
         <v>98</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="22">
         <v>50</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="22">
         <v>88</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="22">
         <v>69</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="22">
         <v>47</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="22">
         <v>58</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="22">
         <v>64</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="22">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="N12" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
@@ -4490,284 +4932,305 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="21">
         <v>50</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="21">
         <v>83</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="22">
         <v>78</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="22">
         <v>70</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="22">
         <v>59</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="22">
         <v>53</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="22">
         <v>46</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="22">
         <v>45</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="N13" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="27">
+        <v>80</v>
+      </c>
+      <c r="E14" s="21">
         <v>56</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="21">
         <v>94</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="22">
         <v>61</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="22">
         <v>67</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="22">
         <v>72</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="22">
         <v>66</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="22">
         <v>65</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="22">
         <v>64</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+      <c r="N14" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="21">
         <v>67</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="21">
         <v>74</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="22">
         <v>68</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="22">
         <v>43</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="22">
         <v>66</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="22">
         <v>68</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="22">
         <v>77</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="22">
         <v>71</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="22">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="N15" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="27">
+        <v>79</v>
+      </c>
+      <c r="E16" s="21">
         <v>74</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="21">
         <v>38</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="22">
         <v>75</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="22">
         <v>62</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="22">
         <v>51</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="22">
         <v>52</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="22">
         <v>72</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="22">
         <v>30</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
+      <c r="N16" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
         <f>LAA!A19+1</f>
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="27">
+        <v>80</v>
+      </c>
+      <c r="E17" s="21">
         <v>46</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="21">
         <v>76</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="22">
         <v>46</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="22">
         <v>62</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="22">
         <v>60</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="22">
         <v>47</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="22">
         <v>50</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="22">
         <v>63</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+      <c r="N17" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <f>A17+1</f>
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="27">
+        <v>79</v>
+      </c>
+      <c r="E18" s="21">
         <v>78</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="21">
         <v>56</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="22">
         <v>68</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="22">
         <v>47</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="22">
         <v>52</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="22">
         <v>67</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="22">
         <v>51</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="22">
         <v>16</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="N18" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <f>LAA!A16+1</f>
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
       </c>
       <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="21">
         <v>80</v>
       </c>
-      <c r="E19" s="27">
-        <v>80</v>
-      </c>
-      <c r="F19" s="27">
+      <c r="F19" s="21">
         <v>50</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="22">
         <v>45</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="22">
         <v>38</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="22">
         <v>78</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="22">
         <v>96</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="22">
         <v>60</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="22">
         <v>59</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="22">
         <v>27</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4779,70 +5242,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF98E2B-B5BC-4137-BADC-315EC8730697}">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="O1" s="22"/>
+      <c r="N1" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4889,13 +5352,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3">
         <v>99</v>
@@ -4939,7 +5402,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -4989,13 +5452,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>64</v>
@@ -5039,7 +5502,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -5089,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -5139,7 +5602,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -5189,13 +5652,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9">
         <v>78</v>
@@ -5239,13 +5702,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>77</v>
@@ -5289,13 +5752,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>87</v>
@@ -5339,13 +5802,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>46</v>
@@ -5388,7 +5851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E9409E-4402-4D0B-B853-36FBBCBB5840}">
   <dimension ref="A1:M14"/>
   <sheetViews>
@@ -5400,51 +5863,51 @@
   <sheetData>
     <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="22" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -5481,12 +5944,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="A3" s="23">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -5523,15 +5986,15 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="23">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -5565,15 +6028,15 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="A5" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -5607,18 +6070,18 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+      <c r="A6" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>56</v>
@@ -5649,18 +6112,18 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <v>49</v>
@@ -5691,18 +6154,18 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+      <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>60</v>
@@ -5733,12 +6196,12 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -5775,18 +6238,18 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10">
         <v>58</v>
@@ -5817,12 +6280,12 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -5830,41 +6293,41 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="21">
         <v>54</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="21">
         <v>42</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="22">
         <v>77</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="22">
         <v>56</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="22">
         <v>45</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="22">
         <v>49</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="22">
         <v>57</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="22">
         <v>76</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -5872,47 +6335,47 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>38</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="21">
         <v>76</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="22">
         <v>50</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="22">
         <v>55</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="22">
         <v>67</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="22">
         <v>48</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="22">
         <v>53</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="22">
         <v>16</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>66</v>
@@ -5943,18 +6406,18 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>59</v>
@@ -5989,7 +6452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B86644-3852-477F-946C-1A8F21C9A9DD}">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -6004,25 +6467,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
-      </c>
-      <c r="M1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -6030,27 +6493,27 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="17" t="e">
+      <c r="K2" s="13" t="e">
         <f>LAA!#REF!/100</f>
         <v>#REF!</v>
       </c>
@@ -6067,27 +6530,27 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
       <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
         <v>102</v>
       </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
       <c r="J3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="17" t="e">
+        <v>105</v>
+      </c>
+      <c r="K3" s="13" t="e">
         <f>LAA!#REF!/100</f>
         <v>#REF!</v>
       </c>
@@ -6104,27 +6567,27 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
         <v>92</v>
       </c>
-      <c r="G4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
       <c r="J4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" s="17">
+        <v>106</v>
+      </c>
+      <c r="K4" s="13">
         <f>LAA!I3/100</f>
         <v>0.79</v>
       </c>
@@ -6141,27 +6604,27 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="17">
+        <v>107</v>
+      </c>
+      <c r="K5" s="13">
         <f>LAA!J3/100</f>
         <v>0.51</v>
       </c>
@@ -6178,7 +6641,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6">
         <f>SUM(L2:L5)</f>
@@ -6194,7 +6657,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -6202,7 +6665,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -6210,56 +6673,56 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
         <v>125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>126</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="27">
+        <v>80</v>
+      </c>
+      <c r="E12" s="21">
         <v>99</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="21">
         <v>99</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="22">
         <v>30</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="22">
         <v>35</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="22">
         <v>56</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="22">
         <v>60</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="22">
         <v>45</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="22">
         <v>99</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="22">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>125</v>
+      <c r="A13" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -6267,31 +6730,31 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="21">
         <v>53</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="21">
         <v>80</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="22">
         <v>80</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="22">
         <v>60</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="22">
         <v>40</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="22">
         <v>80</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="22">
         <v>50</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="22">
         <v>15</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="22">
         <v>2</v>
       </c>
     </row>
